--- a/Squads/B1/St. Gilloise_Anderlecht_squad.xlsx
+++ b/Squads/B1/St. Gilloise_Anderlecht_squad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="180">
   <si>
     <t>Rk</t>
   </si>
@@ -47,15 +47,15 @@
     <t>Min</t>
   </si>
   <si>
+    <t>90s</t>
+  </si>
+  <si>
     <t>Gls</t>
   </si>
   <si>
     <t>Ast</t>
   </si>
   <si>
-    <t>GlspAst</t>
-  </si>
-  <si>
     <t>npG</t>
   </si>
   <si>
@@ -110,319 +110,280 @@
     <t>npxG p90</t>
   </si>
   <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>311</t>
+    <t>183</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Anan Khalaili</t>
   </si>
   <si>
     <t>Fedde Leysen</t>
   </si>
   <si>
-    <t>Anan Khalaili</t>
+    <t>Kevin Mac Allister</t>
+  </si>
+  <si>
+    <t>Cameron Puertas</t>
+  </si>
+  <si>
+    <t>Alessio Castro-Montes</t>
+  </si>
+  <si>
+    <t>Tobi David</t>
+  </si>
+  <si>
+    <t>Dennis Eckert</t>
+  </si>
+  <si>
+    <t>Mohammed Fuseini</t>
+  </si>
+  <si>
+    <t>Anouar Ait El Hadj</t>
+  </si>
+  <si>
+    <t>Elton Kabangu</t>
+  </si>
+  <si>
+    <t>Koki Machida</t>
+  </si>
+  <si>
+    <t>Anthony Moris</t>
+  </si>
+  <si>
+    <t>Mathias Rasmussen</t>
+  </si>
+  <si>
+    <t>Kevin Rodríguez</t>
+  </si>
+  <si>
+    <t>Noah Sadiki</t>
+  </si>
+  <si>
+    <t>Henok Teklab</t>
+  </si>
+  <si>
+    <t>Casper Terho</t>
+  </si>
+  <si>
+    <t>Jean Thierry Lazare</t>
+  </si>
+  <si>
+    <t>Charles Vanhoutte</t>
+  </si>
+  <si>
+    <t>Nilson Angulo</t>
+  </si>
+  <si>
+    <t>Kristian Arnstad</t>
+  </si>
+  <si>
+    <t>Majeed Ashimeru</t>
+  </si>
+  <si>
+    <t>Colin Coosemans</t>
+  </si>
+  <si>
+    <t>Kasper Dolberg</t>
+  </si>
+  <si>
+    <t>Anders Dreyer</t>
+  </si>
+  <si>
+    <t>Alexis Flips</t>
+  </si>
+  <si>
+    <t>Theo Leoni</t>
+  </si>
+  <si>
+    <t>Moussa N'Diaye</t>
+  </si>
+  <si>
+    <t>Louis Patris</t>
+  </si>
+  <si>
+    <t>Mats Rits</t>
+  </si>
+  <si>
+    <t>Killian Sardella</t>
   </si>
   <si>
     <t>Jan-Carlo Simic</t>
   </si>
   <si>
-    <t>Mohammed Fuseini</t>
-  </si>
-  <si>
-    <t>Kevin Mac Allister</t>
-  </si>
-  <si>
-    <t>Anthony Moris</t>
-  </si>
-  <si>
-    <t>Cameron Puertas</t>
-  </si>
-  <si>
-    <t>Noah Sadiki</t>
-  </si>
-  <si>
-    <t>Casper Terho</t>
-  </si>
-  <si>
-    <t>Francis Amuzu</t>
-  </si>
-  <si>
-    <t>Killian Sardella</t>
+    <t>Mario Stroeykens</t>
   </si>
   <si>
     <t>Luis Vázquez</t>
   </si>
   <si>
-    <t>Alessio Castro-Montes</t>
-  </si>
-  <si>
-    <t>Tobi David</t>
-  </si>
-  <si>
-    <t>Dennis Eckert</t>
-  </si>
-  <si>
-    <t>Guillaume François</t>
-  </si>
-  <si>
-    <t>Anouar Ait El Hadj</t>
-  </si>
-  <si>
-    <t>Elton Kabangu</t>
-  </si>
-  <si>
-    <t>Koki Machida</t>
-  </si>
-  <si>
-    <t>Mathias Rasmussen</t>
-  </si>
-  <si>
-    <t>Kevin Rodríguez</t>
-  </si>
-  <si>
-    <t>Henok Teklab</t>
-  </si>
-  <si>
-    <t>Jean Thierry Lazare</t>
-  </si>
-  <si>
-    <t>Mamadou Traoré</t>
-  </si>
-  <si>
-    <t>Charles Vanhoutte</t>
-  </si>
-  <si>
-    <t>Nilson Angulo</t>
-  </si>
-  <si>
-    <t>Kristian Arnstad</t>
-  </si>
-  <si>
-    <t>Majeed Ashimeru</t>
-  </si>
-  <si>
-    <t>Ludwig Augustinsson</t>
-  </si>
-  <si>
-    <t>Colin Coosemans</t>
-  </si>
-  <si>
-    <t>Kasper Dolberg</t>
-  </si>
-  <si>
-    <t>Anders Dreyer</t>
-  </si>
-  <si>
-    <t>Alexis Flips</t>
-  </si>
-  <si>
-    <t>Thomas Foket</t>
-  </si>
-  <si>
-    <t>Mathias Jørgensen</t>
-  </si>
-  <si>
-    <t>Theo Leoni</t>
-  </si>
-  <si>
-    <t>Moussa N'Diaye</t>
-  </si>
-  <si>
-    <t>Louis Patris</t>
-  </si>
-  <si>
-    <t>Mats Rits</t>
-  </si>
-  <si>
-    <t>Mario Stroeykens</t>
-  </si>
-  <si>
     <t>Yari Verschaeren</t>
   </si>
   <si>
     <t>Jan Vertonghen</t>
   </si>
   <si>
+    <t>il ISR</t>
+  </si>
+  <si>
     <t>be BEL</t>
   </si>
   <si>
-    <t>il ISR</t>
+    <t>ar ARG</t>
+  </si>
+  <si>
+    <t>ch SUI</t>
+  </si>
+  <si>
+    <t>ca CAN</t>
+  </si>
+  <si>
+    <t>de GER</t>
+  </si>
+  <si>
+    <t>gh GHA</t>
+  </si>
+  <si>
+    <t>jp JPN</t>
+  </si>
+  <si>
+    <t>lu LUX</t>
+  </si>
+  <si>
+    <t>no NOR</t>
+  </si>
+  <si>
+    <t>ec ECU</t>
+  </si>
+  <si>
+    <t>fi FIN</t>
+  </si>
+  <si>
+    <t>ci CIV</t>
+  </si>
+  <si>
+    <t>dk DEN</t>
+  </si>
+  <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
+    <t>sn SEN</t>
   </si>
   <si>
     <t>rs SRB</t>
   </si>
   <si>
-    <t>gh GHA</t>
-  </si>
-  <si>
-    <t>ar ARG</t>
-  </si>
-  <si>
-    <t>lu LUX</t>
-  </si>
-  <si>
-    <t>ch SUI</t>
-  </si>
-  <si>
-    <t>fi FIN</t>
-  </si>
-  <si>
-    <t>ca CAN</t>
-  </si>
-  <si>
-    <t>de GER</t>
-  </si>
-  <si>
-    <t>jp JPN</t>
-  </si>
-  <si>
-    <t>no NOR</t>
-  </si>
-  <si>
-    <t>ec ECU</t>
-  </si>
-  <si>
-    <t>ci CIV</t>
-  </si>
-  <si>
-    <t>ml MLI</t>
-  </si>
-  <si>
-    <t>se SWE</t>
-  </si>
-  <si>
-    <t>dk DEN</t>
-  </si>
-  <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
-    <t>sn SEN</t>
+    <t>DF,FW</t>
   </si>
   <si>
     <t>DF</t>
   </si>
   <si>
-    <t>DF,FW</t>
+    <t>MF</t>
   </si>
   <si>
     <t>FW</t>
@@ -431,202 +392,160 @@
     <t>GK</t>
   </si>
   <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>FW,DF</t>
+    <t>MF,DF</t>
   </si>
   <si>
     <t>FW,MF</t>
   </si>
   <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>MF,DF</t>
-  </si>
-  <si>
     <t>St. Gilloise</t>
   </si>
   <si>
     <t>Anderlecht</t>
   </si>
   <si>
-    <t>21-052</t>
-  </si>
-  <si>
-    <t>19-362</t>
-  </si>
-  <si>
-    <t>19-120</t>
-  </si>
-  <si>
-    <t>22-106</t>
-  </si>
-  <si>
-    <t>26-297</t>
-  </si>
-  <si>
-    <t>34-123</t>
-  </si>
-  <si>
-    <t>26-012</t>
-  </si>
-  <si>
-    <t>19-257</t>
-  </si>
-  <si>
-    <t>21-067</t>
-  </si>
-  <si>
-    <t>25-007</t>
-  </si>
-  <si>
-    <t>22-120</t>
-  </si>
-  <si>
-    <t>23-219</t>
-  </si>
-  <si>
-    <t>27-105</t>
-  </si>
-  <si>
-    <t>23-058</t>
-  </si>
-  <si>
-    <t>27-234</t>
-  </si>
-  <si>
-    <t>34-088</t>
-  </si>
-  <si>
-    <t>22-132</t>
-  </si>
-  <si>
-    <t>26-204</t>
-  </si>
-  <si>
-    <t>27-005</t>
-  </si>
-  <si>
-    <t>26-279</t>
-  </si>
-  <si>
-    <t>24-179</t>
-  </si>
-  <si>
-    <t>25-288</t>
-  </si>
-  <si>
-    <t>26-176</t>
-  </si>
-  <si>
-    <t>22-149</t>
-  </si>
-  <si>
-    <t>25-349</t>
-  </si>
-  <si>
-    <t>21-072</t>
-  </si>
-  <si>
-    <t>20-358</t>
-  </si>
-  <si>
-    <t>26-325</t>
-  </si>
-  <si>
-    <t>30-131</t>
-  </si>
-  <si>
-    <t>32-027</t>
-  </si>
-  <si>
-    <t>26-329</t>
-  </si>
-  <si>
-    <t>26-120</t>
-  </si>
-  <si>
-    <t>24-225</t>
-  </si>
-  <si>
-    <t>29-340</t>
-  </si>
-  <si>
-    <t>34-129</t>
-  </si>
-  <si>
-    <t>24-131</t>
-  </si>
-  <si>
-    <t>22-073</t>
-  </si>
-  <si>
-    <t>23-084</t>
-  </si>
-  <si>
-    <t>31-043</t>
-  </si>
-  <si>
-    <t>19-336</t>
-  </si>
-  <si>
-    <t>23-049</t>
-  </si>
-  <si>
-    <t>37-128</t>
+    <t>19-338</t>
+  </si>
+  <si>
+    <t>21-028</t>
+  </si>
+  <si>
+    <t>26-273</t>
+  </si>
+  <si>
+    <t>25-354</t>
+  </si>
+  <si>
+    <t>27-081</t>
+  </si>
+  <si>
+    <t>23-034</t>
+  </si>
+  <si>
+    <t>27-210</t>
+  </si>
+  <si>
+    <t>22-082</t>
+  </si>
+  <si>
+    <t>22-108</t>
+  </si>
+  <si>
+    <t>26-180</t>
+  </si>
+  <si>
+    <t>26-347</t>
+  </si>
+  <si>
+    <t>34-099</t>
+  </si>
+  <si>
+    <t>26-255</t>
+  </si>
+  <si>
+    <t>24-155</t>
+  </si>
+  <si>
+    <t>19-233</t>
+  </si>
+  <si>
+    <t>25-264</t>
+  </si>
+  <si>
+    <t>21-043</t>
+  </si>
+  <si>
+    <t>26-152</t>
+  </si>
+  <si>
+    <t>25-325</t>
+  </si>
+  <si>
+    <t>21-048</t>
+  </si>
+  <si>
+    <t>20-334</t>
+  </si>
+  <si>
+    <t>26-301</t>
+  </si>
+  <si>
+    <t>32-003</t>
+  </si>
+  <si>
+    <t>26-305</t>
+  </si>
+  <si>
+    <t>26-096</t>
+  </si>
+  <si>
+    <t>24-201</t>
+  </si>
+  <si>
+    <t>24-107</t>
+  </si>
+  <si>
+    <t>22-049</t>
+  </si>
+  <si>
+    <t>23-060</t>
+  </si>
+  <si>
+    <t>31-019</t>
+  </si>
+  <si>
+    <t>22-096</t>
+  </si>
+  <si>
+    <t>19-096</t>
+  </si>
+  <si>
+    <t>19-312</t>
+  </si>
+  <si>
+    <t>23-195</t>
+  </si>
+  <si>
+    <t>23-025</t>
+  </si>
+  <si>
+    <t>37-104</t>
+  </si>
+  <si>
+    <t>2004</t>
   </si>
   <si>
     <t>2003</t>
   </si>
   <si>
-    <t>2004</t>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
   </si>
   <si>
     <t>2005</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
     <t>1987</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>2</t>
@@ -787,37 +706,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>160.0</v>
+        <v>118.0</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="J2" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>432.0</v>
+        <v>51.0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -838,31 +757,31 @@
         <v>0.0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X2" t="n">
         <v>0.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB2" t="n">
         <v>0.0</v>
@@ -880,7 +799,7 @@
         <v>0.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -888,37 +807,37 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>142.0</v>
+        <v>131.0</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K3" t="n">
-        <v>108.0</v>
+        <v>180.0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>2.0</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -939,31 +858,31 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W3" t="n">
         <v>0.0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB3" t="n">
         <v>0.0</v>
@@ -981,7 +900,7 @@
         <v>0.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -989,100 +908,100 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>262.0</v>
+        <v>134.0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="I4" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="J4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y4" t="n">
         <v>3.0</v>
       </c>
-      <c r="K4" t="n">
-        <v>296.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="Z4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>2.0</v>
       </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AB4" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AC4" t="n">
         <v>0.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -1090,55 +1009,55 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>100.0</v>
+        <v>192.0</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="I5" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="J5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K5" t="n">
-        <v>340.0</v>
+        <v>168.0</v>
       </c>
       <c r="L5" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="M5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="P5" t="n">
         <v>1.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S5" t="n">
         <v>1.0</v>
@@ -1147,43 +1066,43 @@
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="X5" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>33.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.26</v>
+        <v>0.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.79</v>
+        <v>0.54</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -1191,49 +1110,49 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>164.0</v>
+        <v>46.0</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="I6" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="J6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K6" t="n">
-        <v>450.0</v>
+        <v>180.0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O6" t="n">
         <v>1.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0</v>
@@ -1242,49 +1161,49 @@
         <v>0.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.07</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1292,37 +1211,37 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>189.0</v>
+        <v>55.0</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J7" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>450.0</v>
+        <v>25.0</v>
       </c>
       <c r="L7" t="n">
-        <v>5.0</v>
+        <v>0.3</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
@@ -1343,7 +1262,7 @@
         <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -1367,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB7" t="n">
         <v>0.0</v>
@@ -1393,37 +1312,37 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>231.0</v>
+        <v>68.0</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="J8" t="n">
         <v>2.0</v>
       </c>
       <c r="K8" t="n">
-        <v>201.0</v>
+        <v>129.0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.0</v>
@@ -1444,49 +1363,49 @@
         <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="AC8" t="n">
         <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="9">
@@ -1494,37 +1413,37 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>249.0</v>
+        <v>82.0</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>393.0</v>
+        <v>70.0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
@@ -1545,49 +1464,49 @@
         <v>0.0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T9" t="n">
         <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X9" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="Y9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>7.0</v>
       </c>
-      <c r="Z9" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>31.0</v>
-      </c>
       <c r="AB9" t="n">
         <v>0.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.23</v>
+        <v>1.29</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.23</v>
+        <v>1.29</v>
       </c>
       <c r="AE9" t="n">
         <v>0.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.23</v>
+        <v>1.29</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
@@ -1595,37 +1514,37 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>284.0</v>
+        <v>89.0</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
         <v>123</v>
       </c>
-      <c r="E10" t="s">
-        <v>140</v>
-      </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I10" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>134.0</v>
+        <v>70.0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
@@ -1646,7 +1565,7 @@
         <v>0.0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -1658,19 +1577,19 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y10" t="n">
         <v>1.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB10" t="n">
         <v>0.0</v>
@@ -1688,7 +1607,7 @@
         <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11">
@@ -1696,49 +1615,49 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0</v>
+        <v>108.0</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>87.0</v>
+        <v>85.0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="M11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0</v>
@@ -1747,49 +1666,49 @@
         <v>0.0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>6.0</v>
       </c>
-      <c r="Z11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>7.0</v>
-      </c>
       <c r="AB11" t="n">
-        <v>1.03</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" t="n">
         <v>0.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.03</v>
+        <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.03</v>
+        <v>0.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.03</v>
+        <v>0.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -1797,37 +1716,37 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>252.0</v>
+        <v>135.0</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="I12" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="J12" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K12" t="n">
-        <v>359.0</v>
+        <v>180.0</v>
       </c>
       <c r="L12" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
@@ -1848,31 +1767,31 @@
         <v>0.0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB12" t="n">
         <v>0.0</v>
@@ -1890,7 +1809,7 @@
         <v>0.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -1898,37 +1817,37 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>305.0</v>
+        <v>157.0</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="H13" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K13" t="n">
-        <v>78.0</v>
+        <v>180.0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9</v>
+        <v>2.0</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
@@ -1949,7 +1868,7 @@
         <v>0.0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
@@ -1961,19 +1880,19 @@
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" t="n">
         <v>0.0</v>
@@ -1999,46 +1918,46 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>54.0</v>
+        <v>195.0</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="H14" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="I14" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J14" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>310.0</v>
+        <v>1.0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" t="n">
         <v>0.0</v>
@@ -2056,43 +1975,43 @@
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.3</v>
+        <v>0.0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" t="n">
         <v>0.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.58</v>
+        <v>0.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.58</v>
+        <v>0.0</v>
       </c>
       <c r="AE14" t="n">
         <v>0.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.58</v>
+        <v>0.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -2100,49 +2019,49 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>65.0</v>
+        <v>201.0</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
         <v>124</v>
       </c>
-      <c r="E15" t="s">
-        <v>137</v>
-      </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J15" t="n">
         <v>0.0</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0</v>
+        <v>26.0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
@@ -2157,43 +2076,43 @@
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="W15" t="n">
         <v>0.0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>3.0</v>
       </c>
-      <c r="Z15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>16.0</v>
-      </c>
       <c r="AB15" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" t="n">
         <v>0.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.87</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -2201,49 +2120,49 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>81.0</v>
+        <v>207.0</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
         <v>144</v>
       </c>
-      <c r="G16" t="s">
-        <v>160</v>
-      </c>
       <c r="H16" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K16" t="n">
-        <v>198.0</v>
+        <v>180.0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.2</v>
+        <v>2.0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O16" t="n">
         <v>1.0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
@@ -2258,43 +2177,43 @@
         <v>0.0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="X16" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="Y16" t="n">
         <v>2.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.45</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.45</v>
+        <v>0.0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.45</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -2302,37 +2221,37 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>96.0</v>
+        <v>237.0</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="J17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K17" t="n">
-        <v>107.0</v>
+        <v>143.0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="M17" t="n">
         <v>0.0</v>
@@ -2359,25 +2278,25 @@
         <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="AB17" t="n">
         <v>0.0</v>
@@ -2395,7 +2314,7 @@
         <v>0.0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18">
@@ -2403,37 +2322,37 @@
         <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>110.0</v>
+        <v>238.0</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J18" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>281.0</v>
+        <v>11.0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
@@ -2460,25 +2379,25 @@
         <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB18" t="n">
         <v>0.0</v>
@@ -2496,7 +2415,7 @@
         <v>0.0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.13</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -2504,37 +2423,37 @@
         <v>49</v>
       </c>
       <c r="B19" t="n">
-        <v>132.0</v>
+        <v>239.0</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="I19" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>103.0</v>
+        <v>11.0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
@@ -2561,25 +2480,25 @@
         <v>0.0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB19" t="n">
         <v>0.0</v>
@@ -2597,7 +2516,7 @@
         <v>0.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -2605,37 +2524,37 @@
         <v>50</v>
       </c>
       <c r="B20" t="n">
-        <v>165.0</v>
+        <v>251.0</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H20" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="J20" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="K20" t="n">
-        <v>450.0</v>
+        <v>110.0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.0</v>
+        <v>1.2</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
@@ -2662,22 +2581,22 @@
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W20" t="n">
         <v>0.0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>31.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA20" t="n">
         <v>3.0</v>
@@ -2698,7 +2617,7 @@
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -2706,46 +2625,46 @@
         <v>51</v>
       </c>
       <c r="B21" t="n">
-        <v>235.0</v>
+        <v>15.0</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="J21" t="n">
         <v>1.0</v>
       </c>
       <c r="K21" t="n">
-        <v>91.0</v>
+        <v>77.0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" t="n">
         <v>0.0</v>
@@ -2769,34 +2688,34 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB21" t="n">
         <v>0.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.99</v>
+        <v>0.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.99</v>
+        <v>0.0</v>
       </c>
       <c r="AE21" t="n">
         <v>0.0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.99</v>
+        <v>0.0</v>
       </c>
       <c r="AG21" t="n">
         <v>0.0</v>
@@ -2807,100 +2726,100 @@
         <v>52</v>
       </c>
       <c r="B22" t="n">
-        <v>243.0</v>
+        <v>16.0</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA22" t="n">
         <v>2.0</v>
       </c>
-      <c r="K22" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>17.0</v>
-      </c>
       <c r="AB22" t="n">
-        <v>0.64</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" t="n">
         <v>0.0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.64</v>
+        <v>0.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.64</v>
+        <v>0.0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.64</v>
+        <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -2908,49 +2827,49 @@
         <v>53</v>
       </c>
       <c r="B23" t="n">
-        <v>283.0</v>
+        <v>19.0</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="J23" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K23" t="n">
-        <v>212.0</v>
+        <v>92.0</v>
       </c>
       <c r="L23" t="n">
-        <v>2.4</v>
+        <v>1.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q23" t="n">
         <v>0.0</v>
@@ -2965,43 +2884,43 @@
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W23" t="n">
         <v>0.0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0</v>
+        <v>0.98</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0</v>
+        <v>0.98</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0</v>
+        <v>0.98</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.0</v>
+        <v>0.98</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24">
@@ -3009,37 +2928,37 @@
         <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>285.0</v>
+        <v>49.0</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
         <v>129</v>
       </c>
-      <c r="E24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" t="s">
-        <v>144</v>
-      </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.0</v>
+        <v>180.0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4</v>
+        <v>2.0</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
@@ -3066,25 +2985,25 @@
         <v>0.0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W24" t="n">
         <v>0.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" t="n">
         <v>0.0</v>
@@ -3102,7 +3021,7 @@
         <v>0.0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.64</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -3110,37 +3029,37 @@
         <v>55</v>
       </c>
       <c r="B25" t="n">
-        <v>288.0</v>
+        <v>63.0</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K25" t="n">
-        <v>21.0</v>
+        <v>163.0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
@@ -3167,25 +3086,25 @@
         <v>0.0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB25" t="n">
         <v>0.0</v>
@@ -3203,7 +3122,7 @@
         <v>0.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="26">
@@ -3211,82 +3130,82 @@
         <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>302.0</v>
+        <v>66.0</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H26" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="J26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y26" t="n">
         <v>4.0</v>
       </c>
-      <c r="K26" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Z26" t="n">
-        <v>34.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB26" t="n">
         <v>0.0</v>
@@ -3304,7 +3223,7 @@
         <v>0.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="27">
@@ -3312,37 +3231,37 @@
         <v>57</v>
       </c>
       <c r="B27" t="n">
-        <v>17.0</v>
+        <v>76.0</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H27" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0</v>
+        <v>1.0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.2</v>
+        <v>0.0</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
@@ -3369,25 +3288,25 @@
         <v>0.0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W27" t="n">
         <v>0.0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB27" t="n">
         <v>0.0</v>
@@ -3405,7 +3324,7 @@
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.11</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -3413,82 +3332,82 @@
         <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>18.0</v>
+        <v>130.0</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H28" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K28" t="n">
-        <v>25.0</v>
+        <v>180.0</v>
       </c>
       <c r="L28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X28" t="n">
         <v>0.3</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Y28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB28" t="n">
         <v>0.0</v>
@@ -3506,7 +3425,7 @@
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="29">
@@ -3514,49 +3433,49 @@
         <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>21.0</v>
+        <v>160.0</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
         <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G29" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H29" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="J29" t="n">
         <v>2.0</v>
       </c>
       <c r="K29" t="n">
-        <v>151.0</v>
+        <v>155.0</v>
       </c>
       <c r="L29" t="n">
         <v>1.7</v>
       </c>
       <c r="M29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" t="n">
         <v>0.0</v>
@@ -3571,43 +3490,43 @@
         <v>0.0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V29" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X29" t="n">
         <v>0.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
@@ -3615,49 +3534,49 @@
         <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>22.0</v>
+        <v>183.0</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H30" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="I30" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>73.0</v>
+        <v>1.0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" t="n">
         <v>0.0</v>
@@ -3672,43 +3591,43 @@
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="V30" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="W30" t="n">
         <v>0.0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.23</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.23</v>
+        <v>0.0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.23</v>
+        <v>0.0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.23</v>
+        <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -3716,37 +3635,37 @@
         <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>57.0</v>
+        <v>199.0</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" t="s">
         <v>175</v>
       </c>
-      <c r="H31" t="s">
-        <v>199</v>
-      </c>
       <c r="I31" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="J31" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K31" t="n">
-        <v>360.0</v>
+        <v>154.0</v>
       </c>
       <c r="L31" t="n">
-        <v>4.0</v>
+        <v>1.7</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
@@ -3788,10 +3707,10 @@
         <v>0.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB31" t="n">
         <v>0.0</v>
@@ -3817,49 +3736,49 @@
         <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>76.0</v>
+        <v>210.0</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H32" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="J32" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K32" t="n">
-        <v>317.0</v>
+        <v>179.0</v>
       </c>
       <c r="L32" t="n">
-        <v>3.5</v>
+        <v>2.0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0</v>
@@ -3874,43 +3793,43 @@
         <v>0.0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>0.0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.8</v>
+        <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X32" t="n">
-        <v>2.0</v>
+        <v>0.4</v>
       </c>
       <c r="Y32" t="n">
         <v>6.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.28</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.28</v>
+        <v>0.0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.28</v>
+        <v>0.0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.28</v>
+        <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.51</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -3918,37 +3837,37 @@
         <v>63</v>
       </c>
       <c r="B33" t="n">
-        <v>79.0</v>
+        <v>218.0</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="H33" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="J33" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K33" t="n">
-        <v>359.0</v>
+        <v>116.0</v>
       </c>
       <c r="L33" t="n">
-        <v>4.0</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
@@ -3975,25 +3894,25 @@
         <v>0.0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X33" t="n">
-        <v>1.7</v>
+        <v>0.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" t="n">
         <v>0.0</v>
@@ -4011,7 +3930,7 @@
         <v>0.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.19</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -4019,49 +3938,49 @@
         <v>64</v>
       </c>
       <c r="B34" t="n">
-        <v>90.0</v>
+        <v>230.0</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F34" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" t="s">
         <v>178</v>
       </c>
-      <c r="H34" t="s">
-        <v>197</v>
-      </c>
-      <c r="I34" t="s">
-        <v>206</v>
-      </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.0</v>
+        <v>88.0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q34" t="n">
         <v>0.0</v>
@@ -4076,43 +3995,43 @@
         <v>0.0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W34" t="n">
         <v>0.0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0</v>
+        <v>1.02</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.0</v>
+        <v>1.02</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0</v>
+        <v>1.02</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.0</v>
+        <v>1.02</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="35">
@@ -4120,34 +4039,34 @@
         <v>65</v>
       </c>
       <c r="B35" t="n">
-        <v>91.0</v>
+        <v>253.0</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H35" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="I35" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J35" t="n">
         <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="L35" t="n">
         <v>0.3</v>
@@ -4192,10 +4111,10 @@
         <v>0.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB35" t="n">
         <v>0.0</v>
@@ -4221,37 +4140,37 @@
         <v>66</v>
       </c>
       <c r="B36" t="n">
-        <v>131.0</v>
+        <v>256.0</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H36" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I36" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K36" t="n">
-        <v>90.0</v>
+        <v>180.0</v>
       </c>
       <c r="L36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M36" t="n">
         <v>0.0</v>
@@ -4278,43 +4197,43 @@
         <v>0.0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W36" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="X36" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB36" t="n">
         <v>0.0</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="AE36" t="n">
         <v>0.0</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="37">
@@ -4322,49 +4241,49 @@
         <v>67</v>
       </c>
       <c r="B37" t="n">
-        <v>159.0</v>
+        <v>258.0</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="I37" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="J37" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K37" t="n">
-        <v>360.0</v>
+        <v>180.0</v>
       </c>
       <c r="L37" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" t="n">
         <v>0.0</v>
@@ -4379,648 +4298,42 @@
         <v>0.0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" t="s">
-        <v>145</v>
-      </c>
-      <c r="G38" t="s">
-        <v>182</v>
-      </c>
-      <c r="H38" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" t="s">
-        <v>203</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>236.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" t="n">
-        <v>222.0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" t="s">
-        <v>145</v>
-      </c>
-      <c r="G39" t="s">
-        <v>183</v>
-      </c>
-      <c r="H39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" t="s">
-        <v>206</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" t="n">
-        <v>241.0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" t="s">
-        <v>184</v>
-      </c>
-      <c r="H40" t="s">
-        <v>200</v>
-      </c>
-      <c r="I40" t="s">
-        <v>204</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>334.0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" t="n">
-        <v>276.0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" t="s">
-        <v>185</v>
-      </c>
-      <c r="H41" t="s">
-        <v>189</v>
-      </c>
-      <c r="I41" t="s">
-        <v>204</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>162.0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" t="n">
-        <v>309.0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" t="s">
-        <v>186</v>
-      </c>
-      <c r="H42" t="s">
-        <v>196</v>
-      </c>
-      <c r="I42" t="s">
-        <v>204</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>354.0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" t="n">
-        <v>311.0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" t="s">
-        <v>187</v>
-      </c>
-      <c r="H43" t="s">
-        <v>201</v>
-      </c>
-      <c r="I43" t="s">
-        <v>205</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG43" t="n">
         <v>0.01</v>
       </c>
     </row>
